--- a/stock_historical_data/3mo/NILE.BO.xlsx
+++ b/stock_historical_data/3mo/NILE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1740,7 +1811,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2058,7 +2147,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2270,7 +2371,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2535,7 +2651,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2800,7 +2931,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3224,7 +3379,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>2</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>1</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>2</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>1</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>2</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>1</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>2</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,113 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1313.46125309545</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2792.496067633238</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1313.46125309545</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2204.604736328125</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>897969</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="n">
+        <v>7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>27</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2195.672493811881</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2543.985993966584</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1829.194842667721</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1890.02490234375</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>214514</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>40</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
